--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.35356674353811</v>
+        <v>91.54925686576715</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.575050850754</v>
+        <v>125.2617321118549</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.21280038362663</v>
+        <v>113.3069282050776</v>
       </c>
       <c r="AD2" t="n">
-        <v>79353.5667435381</v>
+        <v>91549.25686576715</v>
       </c>
       <c r="AE2" t="n">
-        <v>108575.050850754</v>
+        <v>125261.7321118549</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.809739550327629e-06</v>
+        <v>8.899277427321522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.159722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>98212.80038362663</v>
+        <v>113306.9282050776</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.05401504409109</v>
+        <v>67.16436431174853</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.32733219502569</v>
+        <v>91.89724633392902</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.13819733292428</v>
+        <v>83.12670212243648</v>
       </c>
       <c r="AD3" t="n">
-        <v>55054.01504409109</v>
+        <v>67164.36431174853</v>
       </c>
       <c r="AE3" t="n">
-        <v>75327.33219502569</v>
+        <v>91897.24633392901</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.24081326576164e-06</v>
+        <v>1.154713847662252e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.436342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>68138.19733292428</v>
+        <v>83126.70212243649</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.10531925957788</v>
+        <v>64.21566852723531</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.29279653537981</v>
+        <v>87.86271067428314</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.48871209412737</v>
+        <v>79.47721688363957</v>
       </c>
       <c r="AD4" t="n">
-        <v>52105.31925957788</v>
+        <v>64215.66852723531</v>
       </c>
       <c r="AE4" t="n">
-        <v>71292.79653537981</v>
+        <v>87862.71067428314</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.649301333530943e-06</v>
+        <v>1.230294835006607e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.28587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>64488.71209412736</v>
+        <v>79477.21688363957</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.43680244814071</v>
+        <v>80.87888585900325</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.58756704240592</v>
+        <v>110.6620597568624</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.08727994223992</v>
+        <v>100.1006280888722</v>
       </c>
       <c r="AD2" t="n">
-        <v>57436.80244814071</v>
+        <v>80878.88585900325</v>
       </c>
       <c r="AE2" t="n">
-        <v>78587.56704240592</v>
+        <v>110662.0597568624</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.679067204621284e-06</v>
+        <v>1.082517855607182e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.769097222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>71087.27994223991</v>
+        <v>100100.6280888722</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.47294859448464</v>
+        <v>61.15140938118113</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.69107085940348</v>
+        <v>83.6700561250813</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.23073006161132</v>
+        <v>75.68470340018462</v>
       </c>
       <c r="AD3" t="n">
-        <v>49472.94859448464</v>
+        <v>61151.40938118113</v>
       </c>
       <c r="AE3" t="n">
-        <v>67691.07085940348</v>
+        <v>83670.0561250813</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.955920141031975e-06</v>
+        <v>1.325905731264696e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.259837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>61230.73006161132</v>
+        <v>75684.70340018462</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.16317130443326</v>
+        <v>53.54136244960343</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.0577552034317</v>
+        <v>73.25765418172604</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.42136593490812</v>
+        <v>66.26604648440194</v>
       </c>
       <c r="AD2" t="n">
-        <v>43163.17130443326</v>
+        <v>53541.36244960342</v>
       </c>
       <c r="AE2" t="n">
-        <v>59057.7552034317</v>
+        <v>73257.65418172604</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.476194568768954e-06</v>
+        <v>1.592233788942206e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.346643518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>53421.36593490811</v>
+        <v>66266.04648440194</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.29554141280295</v>
+        <v>56.18208611298257</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.97535805923143</v>
+        <v>76.87080879846539</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.06051686903258</v>
+        <v>69.5343666956152</v>
       </c>
       <c r="AD2" t="n">
-        <v>45295.54141280294</v>
+        <v>56182.08611298256</v>
       </c>
       <c r="AE2" t="n">
-        <v>61975.35805923142</v>
+        <v>76870.80879846538</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399942949568227e-06</v>
+        <v>1.502444258220004e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.268518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>56060.51686903258</v>
+        <v>69534.3666956152</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.30885946998335</v>
+        <v>56.19540417016297</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.99358041261688</v>
+        <v>76.88903115185084</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.07700010658615</v>
+        <v>69.55084993316878</v>
       </c>
       <c r="AD3" t="n">
-        <v>45308.85946998336</v>
+        <v>56195.40417016298</v>
       </c>
       <c r="AE3" t="n">
-        <v>61993.58041261688</v>
+        <v>76889.03115185084</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.411194351946247e-06</v>
+        <v>1.504728681899347e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>56077.00010658616</v>
+        <v>69550.84993316878</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.67198047413521</v>
+        <v>51.63321742511139</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.01744212256078</v>
+        <v>70.64684597780008</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.57577747097883</v>
+        <v>63.90441015116552</v>
       </c>
       <c r="AD2" t="n">
-        <v>41671.98047413521</v>
+        <v>51633.21742511139</v>
       </c>
       <c r="AE2" t="n">
-        <v>57017.44212256078</v>
+        <v>70646.84597780008</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.379890380742726e-06</v>
+        <v>1.6433574407902e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.468171296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>51575.77747097883</v>
+        <v>63904.41015116552</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.68410140936646</v>
+        <v>83.3532212099782</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.6624206249864</v>
+        <v>114.0475545440362</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.86867381448401</v>
+        <v>103.163016005131</v>
       </c>
       <c r="AD2" t="n">
-        <v>59684.10140936646</v>
+        <v>83353.2212099782</v>
       </c>
       <c r="AE2" t="n">
-        <v>81662.42062498639</v>
+        <v>114047.5545440362</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.444668384263381e-06</v>
+        <v>1.029458116866456e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.861689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>73868.67381448401</v>
+        <v>103163.016005131</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.40686492333202</v>
+        <v>62.19884390490312</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.9688963820124</v>
+        <v>85.10320224998691</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.38660170978224</v>
+        <v>76.98107207036288</v>
       </c>
       <c r="AD3" t="n">
-        <v>50406.86492333202</v>
+        <v>62198.84390490312</v>
       </c>
       <c r="AE3" t="n">
-        <v>68968.8963820124</v>
+        <v>85103.20224998691</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.8433091680339e-06</v>
+        <v>1.293908034807201e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.277199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>62386.60170978224</v>
+        <v>76981.07207036289</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.21636181167997</v>
+        <v>62.00834079325107</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.70824162024606</v>
+        <v>84.84254748822057</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.15082347264755</v>
+        <v>76.7452938332282</v>
       </c>
       <c r="AD4" t="n">
-        <v>50216.36181167997</v>
+        <v>62008.34079325107</v>
       </c>
       <c r="AE4" t="n">
-        <v>68708.24162024606</v>
+        <v>84842.54748822057</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.881428953802446e-06</v>
+        <v>1.301115585405886e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.262731481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>62150.82347264755</v>
+        <v>76745.29383322821</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.08511542142937</v>
+        <v>50.97004526080293</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.21446746679368</v>
+        <v>69.73946456550269</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.84943758937374</v>
+        <v>63.0836279473397</v>
       </c>
       <c r="AD2" t="n">
-        <v>41085.11542142937</v>
+        <v>50970.04526080294</v>
       </c>
       <c r="AE2" t="n">
-        <v>56214.46746679368</v>
+        <v>69739.46456550268</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.163450471757555e-06</v>
+        <v>1.642268835381669e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.601273148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>50849.43758937375</v>
+        <v>63083.6279473397</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.17505856269923</v>
+        <v>62.65569008392769</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.01997280970559</v>
+        <v>85.72827934675897</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.33736487841177</v>
+        <v>77.54649268632045</v>
       </c>
       <c r="AD2" t="n">
-        <v>51175.05856269923</v>
+        <v>62655.69008392769</v>
       </c>
       <c r="AE2" t="n">
-        <v>70019.97280970559</v>
+        <v>85728.27934675897</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.458597460312099e-06</v>
+        <v>1.265876176481991e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.508680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>63337.36487841177</v>
+        <v>77546.49268632045</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.53115478214053</v>
+        <v>58.84119410277679</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.03422289945858</v>
+        <v>80.5091176616651</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.8274479420532</v>
+        <v>72.82544046731084</v>
       </c>
       <c r="AD3" t="n">
-        <v>47531.15478214053</v>
+        <v>58841.19410277679</v>
       </c>
       <c r="AE3" t="n">
-        <v>65034.22289945859</v>
+        <v>80509.11766166511</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.166249405548018e-06</v>
+        <v>1.404574979777901e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.259837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>58827.4479420532</v>
+        <v>72825.44046731084</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.30552679721179</v>
+        <v>78.51194047464902</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.67146167156068</v>
+        <v>107.42350065973</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.44948357520762</v>
+        <v>97.17115252662281</v>
       </c>
       <c r="AD2" t="n">
-        <v>55305.52679721179</v>
+        <v>78511.94047464902</v>
       </c>
       <c r="AE2" t="n">
-        <v>75671.46167156068</v>
+        <v>107423.50065973</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.921787809172631e-06</v>
+        <v>1.138583966713298e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.679398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>68449.48357520762</v>
+        <v>97171.1525266228</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.76738221010492</v>
+        <v>60.32800813008876</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.72568380490361</v>
+        <v>82.54344220743785</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.35747819266337</v>
+        <v>74.66561193362813</v>
       </c>
       <c r="AD3" t="n">
-        <v>48767.38221010492</v>
+        <v>60328.00813008876</v>
       </c>
       <c r="AE3" t="n">
-        <v>66725.68380490362</v>
+        <v>82543.44220743785</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.047274117030516e-06</v>
+        <v>1.354981565914235e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.251157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>60357.47819266337</v>
+        <v>74665.61193362813</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.59688654123383</v>
+        <v>88.68983148915426</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.8032393818159</v>
+        <v>121.3493401626306</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.80096530751213</v>
+        <v>109.7679294524095</v>
       </c>
       <c r="AD2" t="n">
-        <v>76596.88654123383</v>
+        <v>88689.83148915425</v>
       </c>
       <c r="AE2" t="n">
-        <v>104803.2393818159</v>
+        <v>121349.3401626306</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.015208889615308e-06</v>
+        <v>9.342953775692246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>94800.96530751213</v>
+        <v>109767.9294524095</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.50889670843055</v>
+        <v>65.51650080177934</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.21323312236591</v>
+        <v>89.64256678098306</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.22586490860179</v>
+        <v>81.08720602156036</v>
       </c>
       <c r="AD3" t="n">
-        <v>53508.89670843055</v>
+        <v>65516.50080177934</v>
       </c>
       <c r="AE3" t="n">
-        <v>73213.23312236591</v>
+        <v>89642.56678098306</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.419554197401231e-06</v>
+        <v>1.195914256952743e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.387152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>66225.8649086018</v>
+        <v>81087.20602156036</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.34054530607742</v>
+        <v>63.34814939942623</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.24639907275539</v>
+        <v>86.67573273137253</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.54218133670742</v>
+        <v>78.40352244966599</v>
       </c>
       <c r="AD4" t="n">
-        <v>51340.54530607742</v>
+        <v>63348.14939942623</v>
       </c>
       <c r="AE4" t="n">
-        <v>70246.39907275539</v>
+        <v>86675.73273137254</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.751371009418803e-06</v>
+        <v>1.257729212319748e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.268518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>63542.18133670741</v>
+        <v>78403.52244966598</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.75309134655922</v>
+        <v>57.78832348964753</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.96964218116059</v>
+        <v>79.06853363940917</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.86446931336081</v>
+        <v>71.52234376226619</v>
       </c>
       <c r="AD2" t="n">
-        <v>46753.09134655922</v>
+        <v>57788.32348964753</v>
       </c>
       <c r="AE2" t="n">
-        <v>63969.6421811606</v>
+        <v>79068.53363940917</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.159856695791358e-06</v>
+        <v>1.435191380863764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.314814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>57864.46931336081</v>
+        <v>71522.34376226619</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.32520508480952</v>
+        <v>57.36043722789783</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.38418932082536</v>
+        <v>78.48308077907392</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.33489125232752</v>
+        <v>70.9927657012329</v>
       </c>
       <c r="AD3" t="n">
-        <v>46325.20508480952</v>
+        <v>57360.43722789783</v>
       </c>
       <c r="AE3" t="n">
-        <v>63384.18932082535</v>
+        <v>78483.08077907392</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.251776754637317e-06</v>
+        <v>1.453616732346253e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.28587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>57334.89125232752</v>
+        <v>70992.7657012329</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.93609125673513</v>
+        <v>54.49608891758646</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.11529838099231</v>
+        <v>74.56395305477889</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.37797867587386</v>
+        <v>67.44767402641304</v>
       </c>
       <c r="AD2" t="n">
-        <v>43936.09125673513</v>
+        <v>54496.08891758646</v>
       </c>
       <c r="AE2" t="n">
-        <v>60115.29838099231</v>
+        <v>74563.95305477889</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.444774345849952e-06</v>
+        <v>1.557493351219775e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.317708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54377.97867587386</v>
+        <v>67447.67402641303</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.48625375078045</v>
+        <v>52.66638760765372</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.13156674302957</v>
+        <v>72.06047500180537</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.58357160125281</v>
+        <v>65.183124405161</v>
       </c>
       <c r="AD2" t="n">
-        <v>42486.25375078045</v>
+        <v>52666.38760765373</v>
       </c>
       <c r="AE2" t="n">
-        <v>58131.56674302957</v>
+        <v>72060.47500180537</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.42881384009925e-06</v>
+        <v>1.614916982949198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.404513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>52583.57160125281</v>
+        <v>65183.12440516099</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.52400089012988</v>
+        <v>59.46341471764237</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.4467258104474</v>
+        <v>81.36046735735992</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.15496811917469</v>
+        <v>73.59553854292564</v>
       </c>
       <c r="AD2" t="n">
-        <v>40524.00089012989</v>
+        <v>59463.41471764237</v>
       </c>
       <c r="AE2" t="n">
-        <v>55446.7258104474</v>
+        <v>81360.46735735993</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.778670838140964e-06</v>
+        <v>1.612325136536579e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.826967592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>50154.96811917469</v>
+        <v>73595.53854292564</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.1792952348099</v>
+        <v>64.78789239053495</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.76225784516761</v>
+        <v>88.64565260878447</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.81793007891137</v>
+        <v>80.18543593877824</v>
       </c>
       <c r="AD2" t="n">
-        <v>53179.2952348099</v>
+        <v>64787.89239053495</v>
       </c>
       <c r="AE2" t="n">
-        <v>72762.25784516761</v>
+        <v>88645.65260878447</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.183587654790304e-06</v>
+        <v>1.199973536968533e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.592592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>65817.93007891138</v>
+        <v>80185.43593877825</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.11681464577857</v>
+        <v>59.55481960091142</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.83554856237744</v>
+        <v>81.48553155114743</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.55229620837095</v>
+        <v>73.7086667855868</v>
       </c>
       <c r="AD3" t="n">
-        <v>48116.81464577857</v>
+        <v>59554.81960091142</v>
       </c>
       <c r="AE3" t="n">
-        <v>65835.54856237744</v>
+        <v>81485.53155114743</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.114856528600757e-06</v>
+        <v>1.380693543987328e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.254050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>59552.29620837096</v>
+        <v>73708.6667855868</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.05700545250646</v>
+        <v>85.94532600618346</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.90913262194698</v>
+        <v>117.5941866817953</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.80552417524461</v>
+        <v>106.3711625493929</v>
       </c>
       <c r="AD2" t="n">
-        <v>62057.00545250646</v>
+        <v>85945.32600618346</v>
       </c>
       <c r="AE2" t="n">
-        <v>84909.13262194698</v>
+        <v>117594.1866817953</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.222664896560834e-06</v>
+        <v>9.79976782785367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.957175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>76805.52417524462</v>
+        <v>106371.1625493929</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.12636553839006</v>
+        <v>64.02794489649379</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.32159298254692</v>
+        <v>87.60585892092064</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.51476024879291</v>
+        <v>79.24487870112421</v>
       </c>
       <c r="AD3" t="n">
-        <v>52126.36553839006</v>
+        <v>64027.94489649379</v>
       </c>
       <c r="AE3" t="n">
-        <v>71321.59298254692</v>
+        <v>87605.85892092064</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.587234359732899e-06</v>
+        <v>1.236023536481378e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>64514.76024879291</v>
+        <v>79244.87870112421</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.80353422476285</v>
+        <v>62.70511358286658</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.5116368200443</v>
+        <v>85.79590275841802</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.87754376214954</v>
+        <v>77.60766221448084</v>
       </c>
       <c r="AD4" t="n">
-        <v>50803.53422476285</v>
+        <v>62705.11358286658</v>
       </c>
       <c r="AE4" t="n">
-        <v>69511.6368200443</v>
+        <v>85795.90275841803</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.811851332860266e-06</v>
+        <v>1.278170490774635e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.268518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>62877.54376214954</v>
+        <v>77607.66221448084</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.61382546201627</v>
+        <v>67.7636191878906</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.88382480460892</v>
+        <v>92.71717329272548</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.40508784081828</v>
+        <v>83.8683764030604</v>
       </c>
       <c r="AD2" t="n">
-        <v>49613.82546201626</v>
+        <v>67763.6191878906</v>
       </c>
       <c r="AE2" t="n">
-        <v>67883.82480460891</v>
+        <v>92717.17329272548</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.955729620732221e-06</v>
+        <v>1.489482780391964e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61405.08784081828</v>
+        <v>83868.37640306039</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.63241373665775</v>
+        <v>55.36110936497995</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.06803751760169</v>
+        <v>75.74751219291088</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.23978972646331</v>
+        <v>68.51827594153775</v>
       </c>
       <c r="AD2" t="n">
-        <v>44632.41373665776</v>
+        <v>55361.10936497995</v>
       </c>
       <c r="AE2" t="n">
-        <v>61068.03751760169</v>
+        <v>75747.51219291087</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.420915212485846e-06</v>
+        <v>1.528176794117698e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>55239.78972646331</v>
+        <v>68518.27594153775</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.12743626260621</v>
+        <v>60.30349224535903</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.21832564399936</v>
+        <v>82.50989849238614</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.80310298606315</v>
+        <v>74.63526958366204</v>
       </c>
       <c r="AD2" t="n">
-        <v>49127.43626260621</v>
+        <v>60303.49224535903</v>
       </c>
       <c r="AE2" t="n">
-        <v>67218.32564399937</v>
+        <v>82509.89849238614</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.753983250694071e-06</v>
+        <v>1.338088430752243e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.424768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>60803.10298606315</v>
+        <v>74635.26958366204</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.9240361650882</v>
+        <v>58.10009214784102</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.20353642342498</v>
+        <v>79.49510927181176</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.07604101741617</v>
+        <v>71.90820761501507</v>
       </c>
       <c r="AD3" t="n">
-        <v>46924.0361650882</v>
+        <v>58100.09214784102</v>
       </c>
       <c r="AE3" t="n">
-        <v>64203.53642342497</v>
+        <v>79495.10927181176</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.214821709623668e-06</v>
+        <v>1.429389014045223e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.268518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>58076.04101741617</v>
+        <v>71908.20761501507</v>
       </c>
     </row>
   </sheetData>
